--- a/Q.xlsx
+++ b/Q.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d8f3b2df7dd2c83/UTFPR/ACV - Cassia/Projeto ACV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{990576AB-4CC3-4357-BDC5-DE46466F404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAFDF243-52A2-47C1-89F2-A8CED26F2601}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{6B338B54-A98B-4999-AB71-89ABAA2BBC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC8BC0E0-68CB-4B27-BB8E-65D6BCCBE7C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DF0B58A4-99DC-47F5-A5A5-CC85722650C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A28B081C-2AC4-4EBD-B12F-2E94BAB4D407}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,21 +36,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>col1</t>
+    <t>Item</t>
   </si>
   <si>
-    <t>col2</t>
+    <t>X1</t>
   </si>
   <si>
-    <t>col3</t>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>Impacto1</t>
+  </si>
+  <si>
+    <t>Impacto2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -60,7 +75,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,8 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,61 +419,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF61071C-7D54-4C2C-9D45-DBAD58574260}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA39D55-2AEE-4C23-821E-19F43BC3862C}">
+  <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>-15</v>
-      </c>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Q.xlsx
+++ b/Q.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d8f3b2df7dd2c83/UTFPR/ACV - Cassia/Projeto ACV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{6B338B54-A98B-4999-AB71-89ABAA2BBC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC8BC0E0-68CB-4B27-BB8E-65D6BCCBE7C8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{6B338B54-A98B-4999-AB71-89ABAA2BBC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF9CBEFD-A151-4A57-BE17-E76240F27786}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A28B081C-2AC4-4EBD-B12F-2E94BAB4D407}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Item</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>X2</t>
-  </si>
-  <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>X4</t>
   </si>
   <si>
     <t>Impacto1</t>
@@ -63,8 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,14 +93,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +136,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -423,7 +442,7 @@
   <dimension ref="A1:AK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,12 +457,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -479,20 +494,18 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="4">
         <v>0</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -528,20 +541,18 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -576,9 +587,15 @@
       <c r="AK3" s="2"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-15</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
